--- a/Documents/design/Nodejs-Restful-API/Requirements.xlsx
+++ b/Documents/design/Nodejs-Restful-API/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\School_Management_System\Documents\design\Nodejs-Restful-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34568C08-FB8C-4E2D-8873-2CACF9498330}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD87ED5-F36C-4694-9A76-E382E3A733AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{8A280C88-C1E1-4D78-90ED-AB71BBB573EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A280C88-C1E1-4D78-90ED-AB71BBB573EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dependencies" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Module</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>api.js</t>
+  </si>
+  <si>
+    <t>jsonwebtoken</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>Install command</t>
+  </si>
+  <si>
+    <t>mongoose</t>
+  </si>
+  <si>
+    <t>5.8.2</t>
+  </si>
+  <si>
+    <t>cors</t>
+  </si>
+  <si>
+    <t>2.8.5</t>
   </si>
 </sst>
 </file>
@@ -436,39 +457,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEBDAF-EFF6-4FCE-B8C8-787ABAAAAB94}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="str">
+        <f xml:space="preserve"> CONCATENATE("npm install --save ",A2,"@",B2)</f>
+        <v>npm install --save express@4.17.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0" xml:space="preserve"> CONCATENATE("npm install --save ",A3,"@",B3)</f>
+        <v>npm install --save body-parser@1.19.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install --save jsonwebtoken@8.5.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install --save mongoose@5.8.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>npm install --save cors@2.8.5</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5173D3E-0AA3-4A54-B3A8-AE212CC3307C}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
